--- a/Data/Instore_CustomerApplication.xlsx
+++ b/Data/Instore_CustomerApplication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3255" windowWidth="14865" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11370" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Application" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>Store number</t>
   </si>
@@ -278,6 +278,78 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t>Jyothsna</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>9/13/1996</t>
+  </si>
+  <si>
+    <t>Comaker SSN</t>
+  </si>
+  <si>
+    <t>123556789</t>
+  </si>
+  <si>
+    <t>1234767891</t>
+  </si>
+  <si>
+    <t>jyothsna.gundu@tammina.com</t>
+  </si>
+  <si>
+    <t>12346678911</t>
+  </si>
+  <si>
+    <t>9/22/2021</t>
+  </si>
+  <si>
+    <t>Comaker Expiration Date</t>
+  </si>
+  <si>
+    <t>Comaker Address Line1</t>
+  </si>
+  <si>
+    <t>Comaker Address Line2</t>
+  </si>
+  <si>
+    <t>Comaker City</t>
+  </si>
+  <si>
+    <t>TechTammina</t>
+  </si>
+  <si>
+    <t>Comaker State</t>
+  </si>
+  <si>
+    <t>Comaker Zip Code</t>
+  </si>
+  <si>
+    <t>Comaker Rent/Own</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>Mortgage Amount</t>
+  </si>
+  <si>
+    <t>Years Of Current Address</t>
+  </si>
+  <si>
+    <t>Comaker Income Source</t>
+  </si>
+  <si>
+    <t>Length of Employemnt</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>8yrs</t>
   </si>
 </sst>
 </file>
@@ -641,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,11 +750,15 @@
     <col min="52" max="52" width="14" customWidth="1"/>
     <col min="53" max="53" width="15.140625" customWidth="1"/>
     <col min="54" max="54" width="15.28515625" customWidth="1"/>
-    <col min="55" max="55" width="12.28515625" customWidth="1"/>
+    <col min="55" max="55" width="28.85546875" customWidth="1"/>
     <col min="56" max="56" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.85546875" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" customWidth="1"/>
+    <col min="59" max="59" width="11.28515625" customWidth="1"/>
+    <col min="64" max="64" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -840,19 +916,55 @@
         <v>39</v>
       </c>
       <c r="BA1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="BF1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1000,8 +1112,65 @@
       <c r="AW2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="AX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK2">
+        <v>53100</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2">
+        <v>500</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>0</v>
       </c>
@@ -1009,9 +1178,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="BC2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Data/Instore_CustomerApplication.xlsx
+++ b/Data/Instore_CustomerApplication.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11370" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="2580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Application" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer_Application1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
   <si>
     <t>Store number</t>
   </si>
@@ -350,13 +350,55 @@
   </si>
   <si>
     <t>8yrs</t>
+  </si>
+  <si>
+    <t>Fort Mill #104</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>Shine</t>
+  </si>
+  <si>
+    <t>bhargav.mogali@tammina.com</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>3500.5</t>
+  </si>
+  <si>
+    <t>109 grand Avenu</t>
+  </si>
+  <si>
+    <t>Abbeville</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Test_Instore</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Aaliyah</t>
+  </si>
+  <si>
+    <t>satya.mula@tammina.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,16 +420,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF897A6B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,12 +449,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -410,6 +479,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +1038,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1170,11 +1244,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="8" spans="1:68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
@@ -1187,13 +1258,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>5157</v>
+      </c>
+      <c r="D2">
+        <v>619</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2">
+        <v>53100</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>53020</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2">
+        <v>4500</v>
+      </c>
+      <c r="AF2">
+        <v>3500</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>369852</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>7458968123</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>3500.741</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>2000.2560000000001</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK2">
+        <v>53100</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2">
+        <v>1500.2650000000001</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Instore_CustomerApplication.xlsx
+++ b/Data/Instore_CustomerApplication.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11370" windowHeight="4395"/>
+    <workbookView xWindow="5085" yWindow="3255" windowWidth="14865" windowHeight="6555"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer_Application" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer_Application" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Store number</t>
   </si>
@@ -73,9 +72,6 @@
     <t>Years at Current Address</t>
   </si>
   <si>
-    <t>Spartanburg #103</t>
-  </si>
-  <si>
     <t>Refinance</t>
   </si>
   <si>
@@ -85,24 +81,12 @@
     <t>Mogali</t>
   </si>
   <si>
-    <t>jyothsna.cool14@gmail.com</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>9/13/1995</t>
   </si>
   <si>
-    <t>1234567891</t>
-  </si>
-  <si>
     <t>12345678911</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
     <t>9/22/2020</t>
   </si>
   <si>
@@ -112,18 +96,6 @@
     <t>AddressLine2</t>
   </si>
   <si>
-    <t>Tammina</t>
-  </si>
-  <si>
-    <t>LLC</t>
-  </si>
-  <si>
-    <t>Vizag</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -181,15 +153,6 @@
     <t>Self-Employed</t>
   </si>
   <si>
-    <t>Anakapalli</t>
-  </si>
-  <si>
-    <t>narasinga rao peta</t>
-  </si>
-  <si>
-    <t>Armed Forces</t>
-  </si>
-  <si>
     <t>7yrs</t>
   </si>
   <si>
@@ -319,9 +282,6 @@
     <t>Comaker City</t>
   </si>
   <si>
-    <t>TechTammina</t>
-  </si>
-  <si>
     <t>Comaker State</t>
   </si>
   <si>
@@ -350,6 +310,27 @@
   </si>
   <si>
     <t>8yrs</t>
+  </si>
+  <si>
+    <t>123496789</t>
+  </si>
+  <si>
+    <t>1234567991</t>
+  </si>
+  <si>
+    <t>Gaffney #101</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Dollars Street</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
   </si>
 </sst>
 </file>
@@ -713,49 +694,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" customWidth="1"/>
-    <col min="22" max="23" width="15.42578125" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="15.42578125" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="13.28515625" customWidth="1"/>
-    <col min="37" max="49" width="17.5703125" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" customWidth="1"/>
-    <col min="51" max="51" width="19.28515625" customWidth="1"/>
-    <col min="52" max="52" width="14" customWidth="1"/>
-    <col min="53" max="53" width="15.140625" customWidth="1"/>
-    <col min="54" max="54" width="15.28515625" customWidth="1"/>
-    <col min="55" max="55" width="28.85546875" customWidth="1"/>
-    <col min="56" max="56" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.85546875" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" customWidth="1"/>
-    <col min="59" max="59" width="11.28515625" customWidth="1"/>
-    <col min="64" max="64" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="55" max="55" width="25.28515625" customWidth="1"/>
+    <col min="62" max="62" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -799,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>13</v>
@@ -817,19 +772,19 @@
         <v>16</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="7" t="s">
         <v>13</v>
@@ -838,189 +793,189 @@
         <v>14</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AX1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BB1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="BM1" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="BP1" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D2">
         <v>539</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="R2">
         <v>53100</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T2" s="2">
         <v>50000</v>
@@ -1029,31 +984,31 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
       </c>
       <c r="AA2" s="2">
         <v>53020</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AE2">
         <v>5550</v>
@@ -1065,31 +1020,31 @@
         <v>2013</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AJ2" s="5">
         <v>87</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AM2" s="1">
         <v>369852</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="6">
         <v>7458968123</v>
@@ -1104,58 +1059,58 @@
         <v>12</v>
       </c>
       <c r="AU2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="BG2" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BH2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="BI2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="BJ2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="BK2">
         <v>53100</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="BM2">
         <v>500</v>
@@ -1164,24 +1119,76 @@
         <v>4</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"Gaffney #101,Spartanburg #103,Fort Mill #104"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"New Customer,Refinance,Comeback,Buyout,Repossession Buyout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"GA,SC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 BI2">
+      <formula1>"Georgia,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"GA,SC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"Georgia,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+      <formula1>"GA,SC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>"Georgia,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
+      <formula1>"Georgia,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2">
+      <formula1>"GA,SC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2">
+      <formula1>"GA,SC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2">
+      <formula1>"Georgia,South Carolina"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"jyothsna.gundu@tammina.com,satya.mula@tammina.com,bhargav.mogali@tammina.com,yamuna.konda@americanautotitleloan.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2">
+      <formula1>"jyothsna.gundu@tammina.com,satya.mula@tammina.com,bhargav.mogali@tammina.com,yamuna.konda@americanautotitleloan.com"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="BC2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1195,16 +1202,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>